--- a/1º Open Ranking Tenistas de Parauapebas - Jogos.xlsx
+++ b/1º Open Ranking Tenistas de Parauapebas - Jogos.xlsx
@@ -91,7 +91,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1872,12 +1872,12 @@
     <row customHeight="1" ht="30" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>16/02/2025</t>
+          <t>15/02/2025</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>08:30h</t>
+          <t>07:00h</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
@@ -1897,25 +1897,25 @@
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>Vinicius Paiva</t>
+          <t>Willian Ferreira</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>Danilo Alves</t>
+          <t>Denilson Montezani</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
@@ -1937,12 +1937,12 @@
     <row customHeight="1" ht="30" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>16/02/2025</t>
+          <t>15/02/2025</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>09:30h</t>
+          <t>17:00h</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -1967,20 +1967,20 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>Luiz Júnior</t>
+          <t>Warwick Melo</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>Vinicius Paiva</t>
+          <t>Sidney Santos</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
@@ -2002,12 +2002,12 @@
     <row customHeight="1" ht="30" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>19/02/2025</t>
+          <t>15/02/2025</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>19:00h</t>
+          <t>18:00h</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
@@ -2027,25 +2027,25 @@
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Danilo Alves</t>
+          <t>Aparecido Fernandes</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>José Junior</t>
+          <t>Paulo Pedrosa</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
@@ -2067,12 +2067,12 @@
     <row customHeight="1" ht="30" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>20/02/2025</t>
+          <t>16/02/2025</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>19:00h</t>
+          <t>08:30h</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -2097,20 +2097,20 @@
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G4</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Joel Silva</t>
+          <t>Vinicius Paiva</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Fernando Lino</t>
+          <t>Danilo Alves</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
@@ -2132,12 +2132,12 @@
     <row customHeight="1" ht="30" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>21/02/2025</t>
+          <t>16/02/2025</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>18:00h</t>
+          <t>09:30h</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Airton Barata</t>
+          <t>Luiz Júnior</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Augusto Espíndola</t>
+          <t>Vinicius Paiva</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
@@ -2197,12 +2197,12 @@
     <row customHeight="1" ht="30" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>22/02/2025</t>
+          <t>16/02/2025</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>17:00h</t>
+          <t>16:30h</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -2227,20 +2227,20 @@
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Airton Barata</t>
+          <t>Matheus Silva</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Túlio Ourique</t>
+          <t>Sidney Santos</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row customHeight="1" ht="30" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>24/02/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>19:00h</t>
+          <t>17:00h</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -2296,16 +2296,16 @@
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Joel Silva</t>
+          <t>Fernando Lino</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>Warwick Melo</t>
+          <t>Sidney Santos</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -2327,12 +2327,12 @@
     <row customHeight="1" ht="30" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>28/02/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>19:00h</t>
+          <t>20:00h</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -2357,20 +2357,20 @@
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Túlio Ourique</t>
+          <t>Fernando Guedes</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>Victtor Barbosa</t>
+          <t>Denilson Montezani</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -2392,12 +2392,12 @@
     <row customHeight="1" ht="30" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>28/02/2025</t>
+          <t>19/02/2025</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>20:00h</t>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
@@ -2422,20 +2422,20 @@
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Augusto Espíndola</t>
+          <t>Danilo Alves</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Túlio Ourique</t>
+          <t>José Junior</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
@@ -2457,12 +2457,12 @@
     <row customHeight="1" ht="30" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>05/03/2025</t>
+          <t>20/02/2025</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>07:00h</t>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -2482,25 +2482,25 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Mateus Moury</t>
+          <t>Joel Silva</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Emivaldo Feitosa</t>
+          <t>Fernando Lino</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
@@ -2522,12 +2522,12 @@
     <row customHeight="1" ht="30" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>07/03/2025</t>
+          <t>21/02/2025</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>06:30h</t>
+          <t>18:00h</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
@@ -2547,25 +2547,25 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Túlio Ourique</t>
+          <t>Airton Barata</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>Mateus Moury</t>
+          <t>Augusto Espíndola</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
@@ -2587,12 +2587,12 @@
     <row customHeight="1" ht="30" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>12/03/2025</t>
+          <t>22/02/2025</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>19:00h</t>
+          <t>17:00h</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -2612,25 +2612,25 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Victtor Barbosa</t>
+          <t>Airton Barata</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>Mateus Moury</t>
+          <t>Túlio Ourique</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
@@ -2652,22 +2652,22 @@
     <row customHeight="1" ht="30" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>22/02/2025</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
@@ -2677,25 +2677,25 @@
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G1</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Walmir Júnior</t>
+          <t>Wilson Lopes</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>Carlos Costa</t>
+          <t>Aparecido Fernandes</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
@@ -2717,22 +2717,22 @@
     <row customHeight="1" ht="30" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>23/02/2025</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>08:00h</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -2742,25 +2742,25 @@
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G1</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Walmir Júnior</t>
+          <t>Júnior Neres</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>Willian Ferreira</t>
+          <t>Aparecido Fernandes</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
@@ -2782,22 +2782,22 @@
     <row customHeight="1" ht="30" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>23/02/2025</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>09:00h</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
@@ -2807,25 +2807,25 @@
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G1</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Carlos Costa</t>
+          <t>Denilson Montezani</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Walter Lucena</t>
+          <t>Fagner Bantim</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
@@ -2847,22 +2847,22 @@
     <row customHeight="1" ht="30" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>24/02/2025</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -2877,20 +2877,20 @@
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G1</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Willian Ferreira</t>
+          <t>Joel Silva</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>Carlos Costa</t>
+          <t>Warwick Melo</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
@@ -2912,22 +2912,22 @@
     <row customHeight="1" ht="30" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>26/02/2025</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
@@ -2942,20 +2942,20 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Túlio Ourique</t>
+          <t>Sidney Santos</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Lupesse Santana</t>
+          <t>Joel Silva</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
@@ -2977,22 +2977,22 @@
     <row customHeight="1" ht="30" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>26/02/2025</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
@@ -3002,30 +3002,30 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Quartas de Finais</t>
+          <t>Fase de grupos - G4</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 1</t>
+          <t>Aparecido Fernandes</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 3</t>
+          <t>Bruno Casale</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>Aguardando jogadores</t>
+          <t>Aguardando resultado</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
@@ -3042,22 +3042,22 @@
     <row customHeight="1" ht="30" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>28/02/2025</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
@@ -3067,30 +3067,30 @@
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Quartas de Finais</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 2</t>
+          <t>Túlio Ourique</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 4</t>
+          <t>Victtor Barbosa</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>Aguardando jogadores</t>
+          <t>Aguardando resultado</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
@@ -3107,22 +3107,22 @@
     <row customHeight="1" ht="30" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>28/02/2025</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>20:00h</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
@@ -3137,25 +3137,25 @@
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Quartas de Finais</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 3</t>
+          <t>Augusto Espíndola</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 1</t>
+          <t>Túlio Ourique</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>Aguardando jogadores</t>
+          <t>Aguardando resultado</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
@@ -3172,22 +3172,22 @@
     <row customHeight="1" ht="30" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>17:00h</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
@@ -3202,25 +3202,25 @@
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Quartas de Finais</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 4</t>
+          <t>Túlio Ourique</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 2</t>
+          <t>Lupesse Santana</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>Aguardando jogadores</t>
+          <t>Aguardando resultado</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
@@ -3237,22 +3237,22 @@
     <row customHeight="1" ht="30" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>07:00h</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
@@ -3262,30 +3262,30 @@
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Semifinal</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>Mateus Moury</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>Emivaldo Feitosa</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>Aguardando jogadores</t>
+          <t>Aguardando resultado</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
@@ -3302,22 +3302,22 @@
     <row customHeight="1" ht="30" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>18:00h</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
@@ -3327,30 +3327,30 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Semifinal</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>Emivaldo Feitosa</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>Túlio Ourique</t>
         </is>
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>Aguardando jogadores</t>
+          <t>Aguardando resultado</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
@@ -3367,22 +3367,22 @@
     <row customHeight="1" ht="30" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>07/03/2025</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>06:30h</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -3392,30 +3392,30 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Classe B</t>
+          <t>Classe C</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>Túlio Ourique</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>Mateus Moury</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>Aguardando jogadores</t>
+          <t>Aguardando resultado</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
@@ -3432,22 +3432,22 @@
     <row customHeight="1" ht="30" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>07/03/2025</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>18:00h</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
@@ -3457,25 +3457,25 @@
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G1</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Willian Ferreira</t>
+          <t>Walmir Júnior</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Denilson Montezani</t>
+          <t>Carlos Costa</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
@@ -3497,22 +3497,22 @@
     <row customHeight="1" ht="30" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>08/03/2025</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>16:30h</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -3522,25 +3522,25 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G1</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Denilson Montezani</t>
+          <t>Walmir Júnior</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>Fagner Bantim</t>
+          <t>Willian Ferreira</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
@@ -3562,22 +3562,22 @@
     <row customHeight="1" ht="30" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>09/03/2025</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>08:00h</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
@@ -3587,25 +3587,25 @@
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G1</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Fernando Guedes</t>
+          <t>Carlos Costa</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>Denilson Montezani</t>
+          <t>Walter Lucena</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
@@ -3627,22 +3627,22 @@
     <row customHeight="1" ht="30" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>10/03/2025</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -3652,25 +3652,25 @@
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G2</t>
+          <t>Fase de grupos - G1</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Fagner Bantim</t>
+          <t>Willian Ferreira</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Willian Ferreira</t>
+          <t>Carlos Costa</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
@@ -3692,22 +3692,22 @@
     <row customHeight="1" ht="30" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>10/03/2025</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
@@ -3722,20 +3722,20 @@
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G3</t>
+          <t>Fase de grupos - G2</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>Emivaldo Feitosa</t>
+          <t>Fagner Bantim</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>Túlio Ourique</t>
+          <t>Willian Ferreira</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -3757,22 +3757,22 @@
     <row customHeight="1" ht="30" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>19:00h</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ranking dos Tenistas de Parauapebas</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Quadra 01</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
@@ -3787,20 +3787,20 @@
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G4</t>
+          <t>Fase de grupos - G3</t>
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Aparecido Fernandes</t>
+          <t>Victtor Barbosa</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Paulo Pedrosa</t>
+          <t>Mateus Moury</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
@@ -3847,30 +3847,30 @@
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G4</t>
+          <t>Quartas de Finais</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>Aparecido Fernandes</t>
+          <t>1º lugar do grupo 1</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>Bruno Casale</t>
+          <t>2º lugar do grupo 3</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>Aguardando resultado</t>
+          <t>Aguardando jogadores</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
@@ -3912,30 +3912,30 @@
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G4</t>
+          <t>Quartas de Finais</t>
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>Júnior Neres</t>
+          <t>2º lugar do grupo 2</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>Aparecido Fernandes</t>
+          <t>1º lugar do grupo 4</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>Aguardando resultado</t>
+          <t>Aguardando jogadores</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
@@ -3977,30 +3977,30 @@
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Fase de grupos - G4</t>
+          <t>Quartas de Finais</t>
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Wilson Lopes</t>
+          <t>1º lugar do grupo 3</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>Aparecido Fernandes</t>
+          <t>2º lugar do grupo 1</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>Aguardando resultado</t>
+          <t>Aguardando jogadores</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
@@ -4051,16 +4051,16 @@
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 1</t>
+          <t>2º lugar do grupo 4</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 3</t>
+          <t>1º lugar do grupo 2</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
@@ -4107,25 +4107,25 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Quartas de Finais</t>
+          <t>Semifinal</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 2</t>
+          <t>Aguardando</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 4</t>
+          <t>Aguardando</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
@@ -4172,25 +4172,25 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>Quartas de Finais</t>
+          <t>Semifinal</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 3</t>
+          <t>Aguardando</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 1</t>
+          <t>Aguardando</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
@@ -4237,25 +4237,25 @@
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Classe C</t>
+          <t>Classe B</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Quartas de Finais</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>2º lugar do grupo 4</t>
+          <t>Aguardando</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>1º lugar do grupo 2</t>
+          <t>Aguardando</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
@@ -4307,20 +4307,20 @@
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Semifinal</t>
+          <t>Quartas de Finais</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>1º lugar do grupo 1</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>2º lugar do grupo 3</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
@@ -4372,20 +4372,20 @@
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Semifinal</t>
+          <t>Quartas de Finais</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>2º lugar do grupo 2</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>Aguardando</t>
+          <t>1º lugar do grupo 4</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
@@ -4437,33 +4437,293 @@
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
+          <t>Quartas de Finais</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I67" s="4" t="inlineStr">
+        <is>
+          <t>1º lugar do grupo 3</t>
+        </is>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>2º lugar do grupo 1</t>
+        </is>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando jogadores</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>1º Open Ranking Tenistas de Parauapebas</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>Classe C</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>Quartas de Finais</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>2º lugar do grupo 4</t>
+        </is>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>1º lugar do grupo 2</t>
+        </is>
+      </c>
+      <c r="K68" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando jogadores</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>1º Open Ranking Tenistas de Parauapebas</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>Classe C</t>
+        </is>
+      </c>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>Semifinal</t>
+        </is>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I69" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando</t>
+        </is>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando</t>
+        </is>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando jogadores</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>1º Open Ranking Tenistas de Parauapebas</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>Classe C</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>Semifinal</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando</t>
+        </is>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando</t>
+        </is>
+      </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>Aguardando jogadores</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t>1º Open Ranking Tenistas de Parauapebas</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>Classe C</t>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H67" s="4" t="n">
+      <c r="H71" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="I67" s="4" t="inlineStr">
+      <c r="I71" s="4" t="inlineStr">
         <is>
           <t>Aguardando</t>
         </is>
       </c>
-      <c r="J67" s="4" t="inlineStr">
+      <c r="J71" s="4" t="inlineStr">
         <is>
           <t>Aguardando</t>
         </is>
       </c>
-      <c r="K67" s="4" t="inlineStr">
+      <c r="K71" s="4" t="inlineStr">
         <is>
           <t>Aguardando jogadores</t>
         </is>
       </c>
-      <c r="L67" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M67" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
